--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.900355871886121</v>
+        <v>0.4786476868327402</v>
       </c>
       <c r="C2">
-        <v>0.08823529411764706</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="D2">
-        <v>0.1071428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.09677419354838709</v>
+        <v>0.1457725947521866</v>
       </c>
       <c r="F2">
-        <v>0.1027397260273973</v>
+        <v>0.2927400468384075</v>
       </c>
       <c r="G2">
-        <v>0.106267029972752</v>
+        <v>0.6403940886699507</v>
       </c>
       <c r="H2">
-        <v>0.5245452113429642</v>
+        <v>0.7949438202247191</v>
       </c>
       <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>290</v>
+      </c>
+      <c r="K2">
+        <v>244</v>
+      </c>
+      <c r="L2">
         <v>3</v>
-      </c>
-      <c r="J2">
-        <v>31</v>
-      </c>
-      <c r="K2">
-        <v>503</v>
-      </c>
-      <c r="L2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9526515151515151</v>
+        <v>0.9878542510121457</v>
       </c>
       <c r="C2">
-        <v>0.9419475655430711</v>
+        <v>0.4569288389513109</v>
       </c>
       <c r="D2">
-        <v>0.9472693032015066</v>
+        <v>0.6248399487836107</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.08823529411764706</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C3">
-        <v>0.1071428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.09677419354838709</v>
+        <v>0.1457725947521866</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.900355871886121</v>
+        <v>0.4786476868327402</v>
       </c>
       <c r="C4">
-        <v>0.900355871886121</v>
+        <v>0.4786476868327402</v>
       </c>
       <c r="D4">
-        <v>0.900355871886121</v>
+        <v>0.4786476868327402</v>
       </c>
       <c r="E4">
-        <v>0.900355871886121</v>
+        <v>0.4786476868327402</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5204434046345811</v>
+        <v>0.5336096651886125</v>
       </c>
       <c r="C5">
-        <v>0.5245452113429642</v>
+        <v>0.6748929909042269</v>
       </c>
       <c r="D5">
-        <v>0.5220217483749469</v>
+        <v>0.3853062717678987</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9095845148153082</v>
+        <v>0.9425914453073096</v>
       </c>
       <c r="C6">
-        <v>0.900355871886121</v>
+        <v>0.4786476868327402</v>
       </c>
       <c r="D6">
-        <v>0.9048958813682551</v>
+        <v>0.6009718243834685</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>503</v>
+        <v>244</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>25</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
